--- a/markers.xlsx
+++ b/markers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>tissueType</t>
   </si>
@@ -31,64 +31,100 @@
     <t>Mammary</t>
   </si>
   <si>
-    <t>Luminal-AV</t>
-  </si>
-  <si>
-    <t>Csn3, Trf, Mfge8</t>
-  </si>
-  <si>
-    <t>Luminal-HS</t>
-  </si>
-  <si>
-    <t>Esr1, Cited1, Prlr</t>
+    <t>Alveolar progenitor</t>
+  </si>
+  <si>
+    <t>Aldh1a3, Wap, c-Kit, Cd14, Csn2, Glycam1, Labla</t>
+  </si>
+  <si>
+    <t>Basal</t>
+  </si>
+  <si>
+    <t>Acta2, Cd44, Ck14, Ck5, Etv5, Krt14, Krt4, Pdpn</t>
+  </si>
+  <si>
+    <t>Differentiated alveolar</t>
+  </si>
+  <si>
+    <t>Csn2, GLycam1, Lalba, Wap</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>Esam, Pecaml</t>
+  </si>
+  <si>
+    <t>Epithelial</t>
+  </si>
+  <si>
+    <t>Sma, Ly6d, P63</t>
+  </si>
+  <si>
+    <t>Hormone sensing differentiated</t>
+  </si>
+  <si>
+    <t>Cited1, Esr1, Pgr, Prlr, S100a6</t>
+  </si>
+  <si>
+    <t>Hormone sensing progenitor</t>
+  </si>
+  <si>
+    <t>Esr1, c-Kit, Pgr, Aldh1a3, Prlr, Cd14, Cited1, S100a6</t>
+  </si>
+  <si>
+    <t>Luminal progenitor</t>
+  </si>
+  <si>
+    <t>c-Kit, Cd14, Aldh1a3</t>
+  </si>
+  <si>
+    <t>Mast</t>
+  </si>
+  <si>
+    <t>Tpsb2</t>
   </si>
   <si>
     <t>Myoepithelial</t>
   </si>
   <si>
-    <t>Krt17, Acta2, Myl9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune </t>
-  </si>
-  <si>
-    <t>Itgax, Clqa, Jchain</t>
-  </si>
-  <si>
-    <t>Memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd3d, S100a4, </t>
-  </si>
-  <si>
-    <t>Naive T-cells</t>
-  </si>
-  <si>
-    <t>Cd3d, Sell</t>
-  </si>
-  <si>
-    <t>Fibroblasts</t>
-  </si>
-  <si>
-    <t>Fn1, Col1a1</t>
-  </si>
-  <si>
-    <t>Monocytes</t>
-  </si>
-  <si>
-    <t>S100a8,S100a9</t>
-  </si>
-  <si>
-    <t>M1-like macrophages</t>
-  </si>
-  <si>
-    <t>Cd86, Cd38</t>
-  </si>
-  <si>
-    <t>M2-like macrophages</t>
-  </si>
-  <si>
-    <t>Cd163, Mrc1</t>
+    <t>Acta2, Krt14, Krt4, Oxtr</t>
+  </si>
+  <si>
+    <t>Natural killer</t>
+  </si>
+  <si>
+    <t>Ncr1</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>S100a8</t>
+  </si>
+  <si>
+    <t>Procr+ basal</t>
+  </si>
+  <si>
+    <t>Gng11, Igfbp4, Procr, Zeb2</t>
+  </si>
+  <si>
+    <t>Progenitor</t>
+  </si>
+  <si>
+    <t>c-Kit, Cd24, Cd49f, Ck14, Ck17, Ck19, Ck5, P63, Sca-1</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Cd24, Cd29, Cd49f, Cd44, Nanog, Oct4, Sca-1, Sox2</t>
+  </si>
+  <si>
+    <t>T-cell</t>
+  </si>
+  <si>
+    <t>Cd3e</t>
   </si>
 </sst>
 </file>
@@ -98,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -110,6 +146,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -130,41 +170,118 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="2" pivot="0" name="Sheet1-style">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F1:F5" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,264 +509,308 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>